--- a/Участок ремонта форм/Документация/Расходные материалы.xlsx
+++ b/Участок ремонта форм/Документация/Расходные материалы.xlsx
@@ -12,21 +12,22 @@
     <workbookView xWindow="10308" yWindow="-12" windowWidth="10236" windowHeight="8052"/>
   </bookViews>
   <sheets>
-    <sheet name="Шлифинструмент" sheetId="1" r:id="rId1"/>
-    <sheet name="Наплавочный порошок" sheetId="2" r:id="rId2"/>
-    <sheet name="Лак" sheetId="3" r:id="rId3"/>
-    <sheet name="Металл" sheetId="5" r:id="rId4"/>
-    <sheet name="Разное" sheetId="4" r:id="rId5"/>
+    <sheet name="Шлифголовки" sheetId="6" r:id="rId1"/>
+    <sheet name="Шлифинструмент" sheetId="1" r:id="rId2"/>
+    <sheet name="Наплавочный порошок" sheetId="2" r:id="rId3"/>
+    <sheet name="Лак" sheetId="3" r:id="rId4"/>
+    <sheet name="Металл" sheetId="5" r:id="rId5"/>
+    <sheet name="Разное" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Шлифинструмент!$V$1:$V$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Шлифинструмент!$V$1:$V$60</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="192">
   <si>
     <t>Наименование расходного материала</t>
   </si>
@@ -1228,7 +1229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,6 +1510,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1518,47 +1561,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1864,11 +1895,721 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" style="115"/>
+    <col min="2" max="2" width="40.6640625" style="115" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="115" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="115" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="115" customWidth="1"/>
+    <col min="6" max="16384" width="25.6640625" style="115"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="52.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="116" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E1" s="116" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117">
+        <v>10</v>
+      </c>
+      <c r="E2" s="117">
+        <f>12*D2</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="117" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117">
+        <v>10</v>
+      </c>
+      <c r="E3" s="117">
+        <f>12*D3</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+    </row>
+    <row r="5" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+    </row>
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117">
+        <v>10</v>
+      </c>
+      <c r="E6" s="117">
+        <f t="shared" ref="E6:E18" si="0">12*D6</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117">
+        <v>10</v>
+      </c>
+      <c r="E7" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117">
+        <v>10</v>
+      </c>
+      <c r="E8" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117">
+        <v>10</v>
+      </c>
+      <c r="E9" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117">
+        <v>10</v>
+      </c>
+      <c r="E10" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117">
+        <v>10</v>
+      </c>
+      <c r="E11" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117">
+        <v>10</v>
+      </c>
+      <c r="E12" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="117" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117">
+        <v>10</v>
+      </c>
+      <c r="E13" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117">
+        <v>10</v>
+      </c>
+      <c r="E14" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117">
+        <v>10</v>
+      </c>
+      <c r="E15" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117">
+        <v>10</v>
+      </c>
+      <c r="E16" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117">
+        <v>10</v>
+      </c>
+      <c r="E17" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117">
+        <v>10</v>
+      </c>
+      <c r="E18" s="117">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="117" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+    </row>
+    <row r="20" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="122"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="124" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="119" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="117">
+        <f t="shared" ref="E22:E25" si="1">12*D22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="119"/>
+      <c r="D23" s="119">
+        <v>10</v>
+      </c>
+      <c r="E23" s="117">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119">
+        <v>12</v>
+      </c>
+      <c r="E24" s="117">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120">
+        <v>12</v>
+      </c>
+      <c r="E25" s="117">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="119"/>
+      <c r="D26" s="119"/>
+      <c r="E26" s="119"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="124" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="120"/>
+      <c r="D27" s="120">
+        <v>12</v>
+      </c>
+      <c r="E27" s="117">
+        <f>12*D27</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="119" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="119" t="s">
+        <v>111</v>
+      </c>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="B30" s="119" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="119"/>
+      <c r="D30" s="119"/>
+      <c r="E30" s="119"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="119"/>
+      <c r="D31" s="119">
+        <v>4</v>
+      </c>
+      <c r="E31" s="117">
+        <f>12*D31</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="119"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="119"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="119" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119">
+        <v>4</v>
+      </c>
+      <c r="E33" s="117">
+        <f>12*D33</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="119" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="119"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="119"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119">
+        <v>4</v>
+      </c>
+      <c r="E36" s="117">
+        <f t="shared" ref="E36:E39" si="2">12*D36</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="124" t="s">
+        <v>171</v>
+      </c>
+      <c r="B37" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="119"/>
+      <c r="D37" s="119"/>
+      <c r="E37" s="117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="119"/>
+      <c r="D38" s="119"/>
+      <c r="E38" s="117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="119" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="121"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" s="119" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="121"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="121"/>
+      <c r="D43" s="121"/>
+      <c r="E43" s="121"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="124"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+    </row>
+    <row r="45" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="119" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119">
+        <v>15</v>
+      </c>
+      <c r="E45" s="117">
+        <f t="shared" ref="E45:E46" si="3">12*D45</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="124" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119">
+        <v>15</v>
+      </c>
+      <c r="E46" s="117">
+        <f t="shared" si="3"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="122"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="118" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="119"/>
+      <c r="D48" s="119">
+        <v>15</v>
+      </c>
+      <c r="E48" s="117">
+        <f t="shared" ref="E48" si="4">12*D48</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="122"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="124" t="s">
+        <v>191</v>
+      </c>
+      <c r="B50" s="118" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119">
+        <v>15</v>
+      </c>
+      <c r="E50" s="117">
+        <f t="shared" ref="E50" si="5">12*D50</f>
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="77" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A20" zoomScale="60" workbookViewId="0">
+      <selection sqref="A1:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1933,13 +2674,13 @@
       <c r="J1" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="101" t="s">
+      <c r="K1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="101" t="s">
+      <c r="L1" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="106" t="s">
         <v>146</v>
       </c>
       <c r="T1" s="108" t="s">
@@ -1948,16 +2689,16 @@
       <c r="U1" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="V1" s="101" t="s">
+      <c r="V1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="W1" s="101" t="s">
+      <c r="W1" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="X1" s="103" t="s">
+      <c r="X1" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="Y1" s="103" t="s">
+      <c r="Y1" s="106" t="s">
         <v>146</v>
       </c>
       <c r="AC1" s="108" t="s">
@@ -1966,20 +2707,20 @@
       <c r="AD1" s="110" t="s">
         <v>180</v>
       </c>
-      <c r="AE1" s="101" t="s">
+      <c r="AE1" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="AF1" s="101" t="s">
+      <c r="AF1" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" s="103" t="s">
+      <c r="AG1" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" s="103" t="s">
+      <c r="AH1" s="106" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
@@ -1998,24 +2739,24 @@
       <c r="G2" s="7"/>
       <c r="I2" s="109"/>
       <c r="J2" s="111"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="104"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="107"/>
       <c r="T2" s="109"/>
       <c r="U2" s="111"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="102"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
       <c r="AA2" s="1" t="s">
         <v>178</v>
       </c>
       <c r="AC2" s="109"/>
       <c r="AD2" s="111"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="107"/>
+      <c r="AH2" s="107"/>
     </row>
     <row r="3" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -2034,34 +2775,34 @@
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="107"/>
-      <c r="T3" s="105" t="s">
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+      <c r="T3" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="107"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="103"/>
       <c r="AA3" s="94">
         <v>2.17</v>
       </c>
-      <c r="AC3" s="105" t="s">
+      <c r="AC3" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="107"/>
-    </row>
-    <row r="4" spans="1:34" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="103"/>
+    </row>
+    <row r="4" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>3</v>
       </c>
@@ -2131,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>3</v>
       </c>
@@ -2277,7 +3018,7 @@
       <c r="AG7" s="89"/>
       <c r="AH7" s="72"/>
     </row>
-    <row r="8" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
@@ -2356,7 +3097,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="9" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>3</v>
       </c>
@@ -2435,7 +3176,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="10" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
@@ -2514,7 +3255,7 @@
         <v>131.4</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
@@ -2593,7 +3334,7 @@
         <v>92.4</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>3</v>
       </c>
@@ -2672,7 +3413,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>3</v>
       </c>
@@ -2749,7 +3490,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>3</v>
       </c>
@@ -2787,7 +3528,7 @@
       <c r="AG14" s="89"/>
       <c r="AH14" s="72"/>
     </row>
-    <row r="15" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>3</v>
       </c>
@@ -2823,7 +3564,7 @@
       <c r="AG15" s="89"/>
       <c r="AH15" s="72"/>
     </row>
-    <row r="16" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>3</v>
       </c>
@@ -2859,7 +3600,7 @@
       <c r="AG16" s="89"/>
       <c r="AH16" s="72"/>
     </row>
-    <row r="17" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44" t="s">
         <v>3</v>
       </c>
@@ -2972,7 +3713,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>3</v>
       </c>
@@ -3042,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="42" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
@@ -3113,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3269,29 +4010,29 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="G23" s="7"/>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="107"/>
-      <c r="T23" s="105" t="s">
+      <c r="J23" s="102"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103"/>
+      <c r="T23" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="U23" s="106"/>
-      <c r="V23" s="106"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="107"/>
-      <c r="AC23" s="105" t="s">
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="103"/>
+      <c r="AC23" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="AD23" s="106"/>
-      <c r="AE23" s="106"/>
-      <c r="AF23" s="106"/>
-      <c r="AG23" s="106"/>
-      <c r="AH23" s="107"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="102"/>
+      <c r="AF23" s="102"/>
+      <c r="AG23" s="102"/>
+      <c r="AH23" s="103"/>
     </row>
     <row r="24" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="47" t="s">
@@ -3441,7 +4182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
         <v>6</v>
       </c>
@@ -3527,31 +4268,31 @@
         <v>3.19</v>
       </c>
       <c r="G27" s="7"/>
-      <c r="I27" s="105" t="s">
+      <c r="I27" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="107"/>
-      <c r="T27" s="105" t="s">
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
+      <c r="T27" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="U27" s="106"/>
-      <c r="V27" s="106"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="107"/>
-      <c r="AC27" s="105" t="s">
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="103"/>
+      <c r="AC27" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="AD27" s="106"/>
-      <c r="AE27" s="106"/>
-      <c r="AF27" s="106"/>
-      <c r="AG27" s="106"/>
-      <c r="AH27" s="107"/>
-    </row>
-    <row r="28" spans="1:34" ht="28.2" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="102"/>
+      <c r="AF27" s="102"/>
+      <c r="AG27" s="102"/>
+      <c r="AH27" s="103"/>
+    </row>
+    <row r="28" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="47" t="s">
         <v>108</v>
       </c>
@@ -3621,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:34" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
         <v>108</v>
       </c>
@@ -3688,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="29.4" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:34" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
         <v>108</v>
       </c>
@@ -3772,31 +4513,31 @@
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="I31" s="105" t="s">
+      <c r="I31" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="107"/>
-      <c r="T31" s="105" t="s">
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+      <c r="T31" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="U31" s="106"/>
-      <c r="V31" s="106"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="107"/>
-      <c r="AC31" s="105" t="s">
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="103"/>
+      <c r="AC31" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
-      <c r="AF31" s="106"/>
-      <c r="AG31" s="106"/>
-      <c r="AH31" s="107"/>
-    </row>
-    <row r="32" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="102"/>
+      <c r="AF31" s="102"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="103"/>
+    </row>
+    <row r="32" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="47" t="s">
         <v>11</v>
       </c>
@@ -3943,7 +4684,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="47" t="s">
         <v>11</v>
       </c>
@@ -4100,29 +4841,29 @@
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="I36" s="112" t="s">
+      <c r="I36" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-      <c r="L36" s="113"/>
-      <c r="M36" s="114"/>
-      <c r="T36" s="112" t="s">
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="99"/>
+      <c r="M36" s="100"/>
+      <c r="T36" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="U36" s="113"/>
-      <c r="V36" s="113"/>
-      <c r="W36" s="113"/>
-      <c r="X36" s="113"/>
-      <c r="Y36" s="114"/>
-      <c r="AC36" s="112" t="s">
+      <c r="U36" s="99"/>
+      <c r="V36" s="99"/>
+      <c r="W36" s="99"/>
+      <c r="X36" s="99"/>
+      <c r="Y36" s="100"/>
+      <c r="AC36" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="AD36" s="113"/>
-      <c r="AE36" s="113"/>
-      <c r="AF36" s="113"/>
-      <c r="AG36" s="113"/>
-      <c r="AH36" s="114"/>
+      <c r="AD36" s="99"/>
+      <c r="AE36" s="99"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="99"/>
+      <c r="AH36" s="100"/>
     </row>
     <row r="37" spans="1:34" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="47" t="s">
@@ -4223,7 +4964,7 @@
       <c r="AG39" s="91"/>
       <c r="AH39" s="87"/>
     </row>
-    <row r="40" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
         <v>103</v>
       </c>
@@ -4283,7 +5024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
         <v>103</v>
       </c>
@@ -4343,7 +5084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
         <v>103</v>
       </c>
@@ -4403,7 +5144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="24" t="s">
         <v>103</v>
       </c>
@@ -4463,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="24"/>
       <c r="B44" s="49"/>
       <c r="C44" s="48"/>
@@ -4538,33 +5279,33 @@
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="I45" s="112" t="s">
+      <c r="I45" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="114"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="99"/>
+      <c r="M45" s="100"/>
       <c r="O45" s="1">
         <f>SUM(O40:O44)</f>
         <v>406.39</v>
       </c>
-      <c r="T45" s="112" t="s">
+      <c r="T45" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="114"/>
-      <c r="AC45" s="112" t="s">
+      <c r="U45" s="99"/>
+      <c r="V45" s="99"/>
+      <c r="W45" s="99"/>
+      <c r="X45" s="99"/>
+      <c r="Y45" s="100"/>
+      <c r="AC45" s="98" t="s">
         <v>148</v>
       </c>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="114"/>
+      <c r="AD45" s="99"/>
+      <c r="AE45" s="99"/>
+      <c r="AF45" s="99"/>
+      <c r="AG45" s="99"/>
+      <c r="AH45" s="100"/>
     </row>
     <row r="46" spans="1:34" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="50" t="s">
@@ -4643,7 +5384,7 @@
         <v>53.8</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I47" s="68">
         <v>4007220005910</v>
       </c>
@@ -4779,7 +5520,7 @@
         <v>125.39999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I49" s="68">
         <v>4007220006719</v>
       </c>
@@ -4855,34 +5596,34 @@
         <v>8.74</v>
       </c>
       <c r="G50" s="7"/>
-      <c r="I50" s="112" t="s">
+      <c r="I50" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="114"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="99"/>
+      <c r="M50" s="100"/>
       <c r="O50" s="78">
         <v>21</v>
       </c>
-      <c r="T50" s="112" t="s">
+      <c r="T50" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="U50" s="113"/>
-      <c r="V50" s="113"/>
-      <c r="W50" s="113"/>
-      <c r="X50" s="113"/>
-      <c r="Y50" s="114"/>
-      <c r="AC50" s="112" t="s">
+      <c r="U50" s="99"/>
+      <c r="V50" s="99"/>
+      <c r="W50" s="99"/>
+      <c r="X50" s="99"/>
+      <c r="Y50" s="100"/>
+      <c r="AC50" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="AD50" s="113"/>
-      <c r="AE50" s="113"/>
-      <c r="AF50" s="113"/>
-      <c r="AG50" s="113"/>
-      <c r="AH50" s="114"/>
-    </row>
-    <row r="51" spans="1:34" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD50" s="99"/>
+      <c r="AE50" s="99"/>
+      <c r="AF50" s="99"/>
+      <c r="AG50" s="99"/>
+      <c r="AH50" s="100"/>
+    </row>
+    <row r="51" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I51" s="68">
         <v>4007220535738</v>
       </c>
@@ -4933,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I52" s="68">
         <v>4007220535790</v>
       </c>
@@ -4990,31 +5731,31 @@
       </c>
     </row>
     <row r="53" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I53" s="112" t="s">
+      <c r="I53" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-      <c r="L53" s="113"/>
-      <c r="M53" s="114"/>
-      <c r="T53" s="112" t="s">
+      <c r="J53" s="99"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="99"/>
+      <c r="M53" s="100"/>
+      <c r="T53" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="U53" s="113"/>
-      <c r="V53" s="113"/>
-      <c r="W53" s="113"/>
-      <c r="X53" s="113"/>
-      <c r="Y53" s="114"/>
-      <c r="AC53" s="112" t="s">
+      <c r="U53" s="99"/>
+      <c r="V53" s="99"/>
+      <c r="W53" s="99"/>
+      <c r="X53" s="99"/>
+      <c r="Y53" s="100"/>
+      <c r="AC53" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="AD53" s="113"/>
-      <c r="AE53" s="113"/>
-      <c r="AF53" s="113"/>
-      <c r="AG53" s="113"/>
-      <c r="AH53" s="114"/>
-    </row>
-    <row r="54" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AD53" s="99"/>
+      <c r="AE53" s="99"/>
+      <c r="AF53" s="99"/>
+      <c r="AG53" s="99"/>
+      <c r="AH53" s="100"/>
+    </row>
+    <row r="54" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I54" s="68">
         <v>4007220267325</v>
       </c>
@@ -5062,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I55" s="68">
         <v>4007220181751</v>
       </c>
@@ -5110,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I56" s="68">
         <v>4007220195888</v>
       </c>
@@ -5158,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I57" s="68">
         <v>4007220195932</v>
       </c>
@@ -5221,12 +5962,12 @@
         <f>SUM(M4:M58)</f>
         <v>2989.82</v>
       </c>
-      <c r="T59" s="98" t="s">
+      <c r="T59" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="U59" s="99"/>
-      <c r="V59" s="99"/>
-      <c r="W59" s="100"/>
+      <c r="U59" s="113"/>
+      <c r="V59" s="113"/>
+      <c r="W59" s="114"/>
       <c r="X59" s="93">
         <f>Y59*AA$3</f>
         <v>3427.2500000000005</v>
@@ -5235,12 +5976,12 @@
         <f>SUM(Y4:Y58)</f>
         <v>1579.3778801843321</v>
       </c>
-      <c r="AC59" s="98" t="s">
+      <c r="AC59" s="112" t="s">
         <v>142</v>
       </c>
-      <c r="AD59" s="99"/>
-      <c r="AE59" s="99"/>
-      <c r="AF59" s="100"/>
+      <c r="AD59" s="113"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="114"/>
       <c r="AG59" s="93">
         <f>AH59*AA$3</f>
         <v>3334.5956000000001</v>
@@ -5251,12 +5992,12 @@
       </c>
     </row>
     <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="T60" s="98" t="s">
+      <c r="T60" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="U60" s="99"/>
-      <c r="V60" s="99"/>
-      <c r="W60" s="100"/>
+      <c r="U60" s="113"/>
+      <c r="V60" s="113"/>
+      <c r="W60" s="114"/>
       <c r="X60" s="93">
         <f>Y60*AA$3</f>
         <v>4112.7000000000007</v>
@@ -5265,12 +6006,12 @@
         <f>Y59*1.2</f>
         <v>1895.2534562211983</v>
       </c>
-      <c r="AC60" s="98" t="s">
+      <c r="AC60" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="AD60" s="99"/>
-      <c r="AE60" s="99"/>
-      <c r="AF60" s="100"/>
+      <c r="AD60" s="113"/>
+      <c r="AE60" s="113"/>
+      <c r="AF60" s="114"/>
       <c r="AG60" s="93">
         <f>AH60*AA$3</f>
         <v>3668.0551600000003</v>
@@ -5281,12 +6022,12 @@
       </c>
     </row>
     <row r="61" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="AC61" s="98" t="s">
+      <c r="AC61" s="112" t="s">
         <v>182</v>
       </c>
-      <c r="AD61" s="99"/>
-      <c r="AE61" s="99"/>
-      <c r="AF61" s="100"/>
+      <c r="AD61" s="113"/>
+      <c r="AE61" s="113"/>
+      <c r="AF61" s="114"/>
       <c r="AG61" s="93">
         <f>AH61*AA$3</f>
         <v>4753.0551599999999</v>
@@ -5313,30 +6054,12 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="46">
-    <mergeCell ref="T53:Y53"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="T23:Y23"/>
-    <mergeCell ref="T27:Y27"/>
-    <mergeCell ref="T31:Y31"/>
-    <mergeCell ref="T36:Y36"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="T50:Y50"/>
-    <mergeCell ref="I45:M45"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="I53:M53"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="I23:M23"/>
-    <mergeCell ref="I27:M27"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="I36:M36"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="AC61:AF61"/>
+    <mergeCell ref="AF1:AF2"/>
+    <mergeCell ref="AG1:AG2"/>
+    <mergeCell ref="AH1:AH2"/>
+    <mergeCell ref="AC3:AH3"/>
+    <mergeCell ref="AC23:AH23"/>
     <mergeCell ref="T60:W60"/>
     <mergeCell ref="T59:W59"/>
     <mergeCell ref="AC1:AC2"/>
@@ -5353,12 +6076,30 @@
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:V2"/>
-    <mergeCell ref="AC61:AF61"/>
-    <mergeCell ref="AF1:AF2"/>
-    <mergeCell ref="AG1:AG2"/>
-    <mergeCell ref="AH1:AH2"/>
-    <mergeCell ref="AC3:AH3"/>
-    <mergeCell ref="AC23:AH23"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I45:M45"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I23:M23"/>
+    <mergeCell ref="I27:M27"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="I36:M36"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="T50:Y50"/>
+    <mergeCell ref="T53:Y53"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="T23:Y23"/>
+    <mergeCell ref="T27:Y27"/>
+    <mergeCell ref="T31:Y31"/>
+    <mergeCell ref="T36:Y36"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5373,7 +6114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -5568,7 +6309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -5748,7 +6489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
@@ -6336,11 +7077,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
